--- a/relevel/1. Excel/Class-Exercise-1.xlsx
+++ b/relevel/1. Excel/Class-Exercise-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\neosoft-office-learning\relevel\1. Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\navneetgitbackups@gmail.com\neosoft-office-learning\relevel\1. Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cell Refrencing" sheetId="7" r:id="rId1"/>
@@ -1166,17 +1166,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="261">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1184,165 +1174,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1502,2244 +1333,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4412,7 +2005,7 @@
       </c>
       <c r="E6" s="48">
         <f ca="1">NOW()</f>
-        <v>45019.930436458337</v>
+        <v>45024.996828935182</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4421,7 +2014,7 @@
       </c>
       <c r="E7" s="49">
         <f ca="1">TODAY()</f>
-        <v>45019</v>
+        <v>45024</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4430,7 +2023,7 @@
       </c>
       <c r="E8">
         <f ca="1">DAY(E6)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5349,13 +2942,13 @@
     <row r="53" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G53">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G54">
         <f t="shared" ref="G54:G63" ca="1" si="6">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" t="e">
         <f>SUMPRODUCT(K47:K51,L47:L50)</f>
@@ -5365,7 +2958,7 @@
     <row r="55" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G55">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5377,25 +2970,25 @@
     <row r="57" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G57">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G58">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G59">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G60">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5407,13 +3000,13 @@
     <row r="62" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G62">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G63">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6489,11 +4082,11 @@
       </c>
       <c r="I8" s="7">
         <f ca="1">NOW()</f>
-        <v>45019.930436458337</v>
+        <v>45024.996828935182</v>
       </c>
       <c r="J8" s="8">
         <f ca="1">H8+I8</f>
-        <v>45020.048492013892</v>
+        <v>45025.114884490737</v>
       </c>
       <c r="K8" s="4">
         <v>100</v>
@@ -6579,11 +4172,11 @@
       </c>
       <c r="I9" s="7">
         <f t="shared" ref="I9:I14" ca="1" si="4">NOW()</f>
-        <v>45019.930436458337</v>
+        <v>45024.996828935182</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ref="J9:J14" ca="1" si="5">H9+I9</f>
-        <v>45019.992936458337</v>
+        <v>45025.059328935182</v>
       </c>
       <c r="K9" s="4">
         <v>120</v>
@@ -6672,11 +4265,11 @@
       </c>
       <c r="I10" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>45019.930436458337</v>
+        <v>45024.996828935182</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>45020.055436458337</v>
+        <v>45025.121828935182</v>
       </c>
       <c r="K10" s="4">
         <v>154</v>
@@ -6765,11 +4358,11 @@
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>45019.930436458337</v>
+        <v>45024.996828935182</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>45020.027658680556</v>
+        <v>45025.094051157401</v>
       </c>
       <c r="K11" s="4">
         <v>97</v>
@@ -6858,11 +4451,11 @@
       </c>
       <c r="I12" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>45019.930436458337</v>
+        <v>45024.996828935182</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>45020.006825347227</v>
+        <v>45025.073217824072</v>
       </c>
       <c r="K12" s="4">
         <v>65</v>
@@ -6951,11 +4544,11 @@
       </c>
       <c r="I13" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>45019.930436458337</v>
+        <v>45024.996828935182</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>45020.027658680556</v>
+        <v>45025.094051157401</v>
       </c>
       <c r="K13" s="4">
         <v>190</v>
@@ -7042,11 +4635,11 @@
       </c>
       <c r="I14" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>45019.930436458337</v>
+        <v>45024.996828935182</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>45020.034603125001</v>
+        <v>45025.100995601846</v>
       </c>
       <c r="K14" s="4">
         <v>200</v>
@@ -9819,51 +7412,51 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A3:A12">
-    <cfRule type="cellIs" dxfId="35" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
       <formula>55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
       <formula>55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="between">
       <formula>20</formula>
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="greaterThan">
       <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B12">
-    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="Mon">
+    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="Mon">
       <formula>NOT(ISERROR(SEARCH("Mon",B3)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="29" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="12"/>
-    <cfRule type="uniqueValues" dxfId="26" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="uniqueValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C12">
-    <cfRule type="timePeriod" dxfId="24" priority="17" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="7" priority="17" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(C2,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(C2,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C12">
-    <cfRule type="timePeriod" dxfId="23" priority="16" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="6" priority="16" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(C3,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(C3,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="22" priority="15" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="5" priority="15" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(C3,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(C3,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D12">
-    <cfRule type="top10" dxfId="21" priority="9" rank="2"/>
-    <cfRule type="top10" dxfId="20" priority="8" rank="2"/>
-    <cfRule type="top10" dxfId="19" priority="7" percent="1" bottom="1" rank="20"/>
-    <cfRule type="aboveAverage" dxfId="18" priority="6"/>
+    <cfRule type="top10" dxfId="4" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="3" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="2" priority="7" percent="1" bottom="1" rank="20"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12">
     <cfRule type="dataBar" priority="5">
@@ -9963,7 +7556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -11263,7 +8856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11333,11 +8928,11 @@
         <v>6</v>
       </c>
       <c r="C6" s="11">
-        <f t="shared" ref="C6:D6" si="0">A6</f>
+        <f>A6</f>
         <v>5</v>
       </c>
       <c r="D6" s="11">
-        <f t="shared" si="0"/>
+        <f>B6</f>
         <v>6</v>
       </c>
     </row>
@@ -11423,7 +9018,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B17" s="14">
         <v>10</v>
@@ -11431,10 +9026,10 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B18" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11442,25 +9037,18 @@
         <v>1</v>
       </c>
       <c r="B19" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B20" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>8</v>
-      </c>
-      <c r="B21" s="14">
         <v>3</v>
       </c>
     </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12441,6 +10029,9 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <conditionalFormatting sqref="A2:A20">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -12450,8 +10041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86:D91"/>
+    <sheetView tabSelected="1" topLeftCell="C39" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12533,7 +10124,7 @@
         <v>13500</v>
       </c>
       <c r="I5" s="23">
-        <f>SUM($H$5:H5)</f>
+        <f>SUM(H5:$H$5)</f>
         <v>13500</v>
       </c>
     </row>
@@ -12562,7 +10153,7 @@
         <v>12500</v>
       </c>
       <c r="I6" s="23">
-        <f>SUM($H$5:H6)</f>
+        <f>SUM(H$5:$H6)</f>
         <v>26000</v>
       </c>
     </row>
@@ -12591,7 +10182,7 @@
         <v>14000</v>
       </c>
       <c r="I7" s="23">
-        <f>SUM($H$5:H7)</f>
+        <f>SUM(H$5:$H7)</f>
         <v>40000</v>
       </c>
     </row>
@@ -12620,7 +10211,7 @@
         <v>11000</v>
       </c>
       <c r="I8" s="23">
-        <f>SUM($H$5:H8)</f>
+        <f>SUM(H$5:$H8)</f>
         <v>51000</v>
       </c>
     </row>
@@ -12649,7 +10240,7 @@
         <v>10500</v>
       </c>
       <c r="I9" s="23">
-        <f>SUM($H$5:H9)</f>
+        <f>SUM(H$5:$H9)</f>
         <v>61500</v>
       </c>
     </row>
@@ -12678,7 +10269,7 @@
         <v>13500</v>
       </c>
       <c r="I10" s="23">
-        <f>SUM($H$5:H10)</f>
+        <f>SUM(H$5:$H10)</f>
         <v>75000</v>
       </c>
     </row>
@@ -13172,12 +10763,21 @@
       <c r="G39" s="23">
         <v>4500</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="H39" s="23">
+        <f>COUNT(D39:G39)</f>
+        <v>4</v>
+      </c>
+      <c r="I39" s="23">
+        <f>COUNTBLANK(D39:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="23">
+        <f>COUNTA(D39:G39)</f>
+        <v>4</v>
+      </c>
       <c r="K39" s="23"/>
       <c r="L39" s="24">
-        <f>COUNTIF(G39:G44, 5000)</f>
+        <f>COUNTIF(G39:G44,5000)</f>
         <v>2</v>
       </c>
     </row>
@@ -13200,11 +10800,23 @@
       <c r="G40" s="23">
         <v>4000</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
+      <c r="H40" s="23">
+        <f t="shared" ref="H40:H44" si="6">COUNT(D40:G40)</f>
+        <v>3</v>
+      </c>
+      <c r="I40" s="23">
+        <f t="shared" ref="I40:I44" si="7">COUNTBLANK(D40:G40)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="23">
+        <f t="shared" ref="J40:J44" si="8">COUNTA(D40:G40)</f>
+        <v>4</v>
+      </c>
       <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
+      <c r="L40" s="35">
+        <f t="shared" ref="L40:L44" si="9">COUNTIF(G40:G45,5000)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="23" t="s">
@@ -13219,11 +10831,23 @@
       <c r="G41" s="23">
         <v>5000</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
+      <c r="H41" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="23">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J41" s="23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
+      <c r="L41" s="35">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="23" t="s">
@@ -13244,11 +10868,23 @@
       <c r="G42" s="23">
         <v>4500</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
+      <c r="H42" s="23">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I42" s="23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="23">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
       <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
+      <c r="L42" s="35">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="23" t="s">
@@ -13269,11 +10905,23 @@
       <c r="G43" s="23">
         <v>2000</v>
       </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
+      <c r="H43" s="23">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I43" s="23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="23">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
       <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
+      <c r="L43" s="35">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="23" t="s">
@@ -13294,11 +10942,23 @@
       <c r="G44" s="23">
         <v>5000</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
+      <c r="H44" s="23">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I44" s="23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="23">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
       <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
+      <c r="L44" s="35">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13391,11 +11051,11 @@
         <v>4000</v>
       </c>
       <c r="H52" s="23">
-        <f t="shared" ref="H52:H56" si="6">SUM(D52:G52)</f>
+        <f t="shared" ref="H52:H56" si="10">SUM(D52:G52)</f>
         <v>12500</v>
       </c>
       <c r="I52" s="23">
-        <f t="shared" ref="I52:I56" si="7">SUBTOTAL(9,D52:G52)</f>
+        <f t="shared" ref="I52:I56" si="11">SUBTOTAL(9,D52:G52)</f>
         <v>12500</v>
       </c>
     </row>
@@ -13419,11 +11079,11 @@
         <v>5000</v>
       </c>
       <c r="H53" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>14000</v>
       </c>
       <c r="I53" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>14000</v>
       </c>
     </row>
@@ -13447,11 +11107,11 @@
         <v>4500</v>
       </c>
       <c r="H54" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11000</v>
       </c>
       <c r="I54" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>11000</v>
       </c>
     </row>
@@ -13475,11 +11135,11 @@
         <v>2000</v>
       </c>
       <c r="H55" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10500</v>
       </c>
       <c r="I55" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10500</v>
       </c>
     </row>
@@ -13503,11 +11163,11 @@
         <v>5000</v>
       </c>
       <c r="H56" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>13500</v>
       </c>
       <c r="I56" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13500</v>
       </c>
     </row>
@@ -13559,7 +11219,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="35">
-        <f t="shared" ref="D66:D70" si="8">MOD(B66,C66)</f>
+        <f t="shared" ref="D66:D70" si="12">MOD(B66,C66)</f>
         <v>2</v>
       </c>
     </row>
@@ -13571,7 +11231,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -13583,7 +11243,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -13598,7 +11258,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
     </row>
@@ -13610,7 +11270,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -13636,7 +11296,7 @@
     </row>
     <row r="75" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="24">
-        <f t="shared" ref="B75:B80" ca="1" si="9">RANDBETWEEN(3,5)</f>
+        <f t="shared" ref="B75:B80" ca="1" si="13">RANDBETWEEN(3,5)</f>
         <v>3</v>
       </c>
       <c r="C75" s="24">
@@ -13649,66 +11309,66 @@
     </row>
     <row r="76" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="24">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
       </c>
       <c r="C76" s="24">
         <v>3</v>
       </c>
       <c r="D76" s="35">
-        <f t="shared" ref="D76:D80" ca="1" si="10">POWER(B76,C76)</f>
-        <v>125</v>
+        <f t="shared" ref="D76:D80" ca="1" si="14">POWER(B76,C76)</f>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>5</v>
       </c>
       <c r="C77" s="24">
         <v>2</v>
       </c>
       <c r="D77" s="35">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>25</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="C78" s="24">
         <v>2</v>
       </c>
       <c r="D78" s="35">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="24">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
       </c>
       <c r="C79" s="24">
         <v>5</v>
       </c>
       <c r="D79" s="35">
-        <f t="shared" ca="1" si="10"/>
-        <v>243</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1024</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="24">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="C80" s="24">
         <v>3</v>
       </c>
       <c r="D80" s="35">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>27</v>
       </c>
     </row>
@@ -13761,11 +11421,11 @@
         <v>3</v>
       </c>
       <c r="D87" s="35">
-        <f t="shared" ref="D87:D91" si="11">CEILING(B87,C87)</f>
+        <f t="shared" ref="D87:D91" si="15">CEILING(B87,C87)</f>
         <v>21</v>
       </c>
       <c r="E87" s="35">
-        <f t="shared" ref="E87:E91" si="12">FLOOR(B87,C87)</f>
+        <f t="shared" ref="E87:E91" si="16">FLOOR(B87,C87)</f>
         <v>18</v>
       </c>
     </row>
@@ -13777,11 +11437,11 @@
         <v>2</v>
       </c>
       <c r="D88" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="E88" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
     </row>
@@ -13793,11 +11453,11 @@
         <v>2</v>
       </c>
       <c r="D89" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="E89" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
     </row>
@@ -13809,11 +11469,11 @@
         <v>4</v>
       </c>
       <c r="D90" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="E90" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>28</v>
       </c>
     </row>
@@ -13825,11 +11485,11 @@
         <v>3</v>
       </c>
       <c r="D91" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="E91" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
     </row>
@@ -13902,7 +11562,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="35" t="str">
-        <f t="shared" ref="D98:D102" si="13">CONCATENATE(B98,C98)</f>
+        <f t="shared" ref="D98:D102" si="17">CONCATENATE(B98,C98)</f>
         <v>91</v>
       </c>
       <c r="E98" s="24" t="s">
@@ -13912,26 +11572,26 @@
         <v>161</v>
       </c>
       <c r="G98" s="35" t="str">
-        <f t="shared" ref="G98:G102" si="14">CONCATENATE(E98,F98)</f>
+        <f t="shared" ref="G98:G102" si="18">CONCATENATE(E98,F98)</f>
         <v>ABCD</v>
       </c>
       <c r="H98">
-        <f t="shared" ref="H98:H102" si="15">LEN(G98)</f>
+        <f t="shared" ref="H98:H102" si="19">LEN(G98)</f>
         <v>4</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="24">
-        <f t="shared" ref="B99:C99" ca="1" si="16">RANDBETWEEN(1,9)</f>
-        <v>9</v>
+        <f t="shared" ref="B99:C99" ca="1" si="20">RANDBETWEEN(1,9)</f>
+        <v>7</v>
       </c>
       <c r="C99" s="24">
-        <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>7</v>
       </c>
       <c r="D99" s="35" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>77</v>
       </c>
       <c r="E99" s="24" t="s">
         <v>105</v>
@@ -13940,11 +11600,11 @@
         <v>162</v>
       </c>
       <c r="G99" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>D  r</v>
       </c>
       <c r="H99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -13956,7 +11616,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>189</v>
       </c>
       <c r="E100" s="24" t="s">
@@ -13966,11 +11626,11 @@
         <v>164</v>
       </c>
       <c r="G100" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>A CD. C</v>
       </c>
       <c r="H100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
     </row>
@@ -13980,11 +11640,11 @@
       </c>
       <c r="C101" s="24">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D101" s="35" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>98</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>92</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>165</v>
@@ -13993,25 +11653,25 @@
         <v>166</v>
       </c>
       <c r="G101" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>A+D+CD-E-F</v>
       </c>
       <c r="H101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="24">
-        <f t="shared" ref="B102:C102" ca="1" si="17">RANDBETWEEN(1,9)</f>
+        <f t="shared" ref="B102:C102" ca="1" si="21">RANDBETWEEN(1,9)</f>
         <v>3</v>
       </c>
       <c r="C102" s="24">
+        <f t="shared" ca="1" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="D102" s="35" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="D102" s="35" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v>34</v>
       </c>
       <c r="E102" s="24" t="s">
@@ -14021,11 +11681,11 @@
         <v>168</v>
       </c>
       <c r="G102" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11_AA_33dd_ss</v>
       </c>
       <c r="H102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
     </row>
@@ -14064,7 +11724,7 @@
         <v>172</v>
       </c>
       <c r="C110" s="35">
-        <f t="shared" ref="C110:C114" si="18">LEN(B110)</f>
+        <f t="shared" ref="C110:C114" si="22">LEN(B110)</f>
         <v>6</v>
       </c>
     </row>
@@ -14073,7 +11733,7 @@
         <v>123</v>
       </c>
       <c r="C111" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
     </row>
@@ -14082,7 +11742,7 @@
         <v>173</v>
       </c>
       <c r="C112" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
     </row>
@@ -14091,7 +11751,7 @@
         <v>174</v>
       </c>
       <c r="C113" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
     </row>
@@ -14100,7 +11760,7 @@
         <v>175</v>
       </c>
       <c r="C114" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
     </row>
